--- a/王俊杰/11 四探针法测量半导体电阻率和薄层电阻/A11-数据收集.xlsx
+++ b/王俊杰/11 四探针法测量半导体电阻率和薄层电阻/A11-数据收集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\材科基实验\A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\72992\Documents\GitHub\Better-Fundamentals-of-Materials-Science\王俊杰\11 四探针法测量半导体电阻率和薄层电阻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D63C8-B297-4E02-A6C3-AF73C8F07658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15748676-B162-4B8F-8F54-AEA9894186E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11172" yWindow="4416" windowWidth="14400" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2205" yWindow="2205" windowWidth="14175" windowHeight="8632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>薄膜厚度 (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品厚度 (cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品直径 (cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,8 +226,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -477,19 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -694,133 +689,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,34 +1099,36 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="18.77734375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="42"/>
-    <col min="9" max="9" width="14.88671875" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="7" width="18.796875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" style="28"/>
+    <col min="9" max="9" width="14.86328125" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13">
+        <v>21.7</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
@@ -1144,16 +1138,16 @@
       <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="29">
         <v>24</v>
       </c>
-      <c r="G2" s="37"/>
+      <c r="G2" s="30"/>
       <c r="I2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1176,168 +1170,201 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="38" t="e">
+      <c r="B4" s="17">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.57</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1.57</v>
+      </c>
+      <c r="E4" s="24">
         <f>AVERAGE(C4:D4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="18" t="e">
+        <v>1.57</v>
+      </c>
+      <c r="F4" s="18">
         <f>2*PI()*I$3*E4/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="19" t="e">
+        <v>1.6739523048145173</v>
+      </c>
+      <c r="G4" s="19">
         <f>F4/I$5</f>
-        <v>#DIV/0!</v>
+        <v>1.6898879481657199</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18" t="e">
+      <c r="B5" s="20">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.55</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1.56</v>
+      </c>
+      <c r="E5" s="18">
         <f>AVERAGE(C5:D5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="18" t="e">
+        <v>1.5550000000000002</v>
+      </c>
+      <c r="F5" s="18">
         <f>2*PI()*I$3*E5/B5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="19" t="e">
+        <v>1.6579591299277543</v>
+      </c>
+      <c r="G5" s="19">
         <f>F5/I$5</f>
-        <v>#DIV/0!</v>
+        <v>1.6737425219093593</v>
       </c>
       <c r="I5" s="16">
-        <v>0.98870000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>0.9785+(0.9927-0.9785)*(21.7-20)/(22-20)</f>
+        <v>0.99057000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18" t="e">
+      <c r="B6" s="20">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1.57</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.56</v>
+      </c>
+      <c r="E6" s="18">
         <f>AVERAGE(C6:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="18" t="e">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="F6" s="18">
         <f>2*PI()*I$3*E6/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="19" t="e">
+        <v>1.6686212465189296</v>
+      </c>
+      <c r="G6" s="19">
         <f>F6/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.6845061394135998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="18" t="e">
+      <c r="B7" s="20">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="18">
         <f>AVERAGE(C7:D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="18" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="18">
         <f>2*PI()*I$3*E7/B7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="19" t="e">
+        <v>1.7059386545880431</v>
+      </c>
+      <c r="G7" s="19">
         <f>F7/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7221788006784406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="18" t="e">
+      <c r="B8" s="20">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1.58</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="E8" s="18">
         <f>AVERAGE(C8:D8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="18" t="e">
+        <v>1.585</v>
+      </c>
+      <c r="F8" s="18">
         <f>2*PI()*I$3*E8/B8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="19" t="e">
+        <v>1.6899454797012801</v>
+      </c>
+      <c r="G8" s="19">
         <f>F8/I$5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+        <v>1.7060333744220801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="e">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31">
         <f>AVERAGE(F4:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29" t="s">
+        <v>1.6792833631101047</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="13" t="e">
+      <c r="F9" s="31"/>
+      <c r="G9" s="13">
         <f>(MAX(F4:F8)-MIN(F4:F8))/(0.5*(MAX(F4:F8)+MIN(F4:F8)))*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+        <v>2.8526148969889097E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13">
+        <v>21.7</v>
+      </c>
       <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0.18</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.04</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="30">
-        <v>75</v>
-      </c>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F12" s="31">
+        <v>7.62</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>30</v>
@@ -1355,32 +1382,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="13">
-        <v>0.98870000000000002</v>
+        <f>I5</f>
+        <v>0.99057000000000006</v>
       </c>
       <c r="C14" s="9">
         <f>D12/B13</f>
-        <v>0.18</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="D14" s="9">
-        <v>1</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="E14" s="9">
         <f>B13/F12</f>
-        <v>1.3333333333333334E-2</v>
+        <v>1.3123359580052493E-2</v>
       </c>
       <c r="F14" s="9">
-        <v>4.5255000000000001</v>
+        <f>4.5284+(4.5235-4.5284)*(E14-0.01)/(0.015-0.01)</f>
+        <v>4.5253391076115488</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1390,14 +1419,18 @@
       <c r="C15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.18110000000000001</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="34">
+        <v>18.32</v>
+      </c>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1420,137 +1453,169 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="38" t="e">
+      <c r="B17" s="17">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="C17" s="18">
+        <v>89.96</v>
+      </c>
+      <c r="D17" s="18">
+        <v>89.93</v>
+      </c>
+      <c r="E17" s="24">
         <f>AVERAGE(C17:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="18" t="e">
+        <v>89.944999999999993</v>
+      </c>
+      <c r="F17" s="18">
         <f>E17/B17*D$12*G$14*D$14*F$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="19" t="e">
+        <v>18.297197656135708</v>
+      </c>
+      <c r="G17" s="19">
         <f>F17/B$14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.471382795901054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="18" t="e">
+      <c r="B18" s="17">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="C18" s="21">
+        <v>89.58</v>
+      </c>
+      <c r="D18" s="21">
+        <v>89.86</v>
+      </c>
+      <c r="E18" s="18">
         <f>AVERAGE(C18:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="18" t="e">
+        <v>89.72</v>
+      </c>
+      <c r="F18" s="18">
         <f>E18/B18*D$12*G$14*D$14*F$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="19" t="e">
+        <v>18.383743332016028</v>
+      </c>
+      <c r="G18" s="19">
         <f>F18/B$14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.558752366835282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="18" t="e">
+      <c r="B19" s="20">
+        <v>0.87509999999999999</v>
+      </c>
+      <c r="C19" s="21">
+        <v>88.76</v>
+      </c>
+      <c r="D19" s="21">
+        <v>88.85</v>
+      </c>
+      <c r="E19" s="18">
         <f>AVERAGE(C19:D19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="18" t="e">
+        <v>88.805000000000007</v>
+      </c>
+      <c r="F19" s="18">
         <f>E19/B19*D$12*G$14*D$14*F$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="19" t="e">
+        <v>18.356367433839683</v>
+      </c>
+      <c r="G19" s="19">
         <f>F19/B$14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.531115856365204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="18" t="e">
+      <c r="B20" s="20">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="C20" s="21">
+        <v>87.1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>87.15</v>
+      </c>
+      <c r="E20" s="18">
         <f>AVERAGE(C20:D20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="18" t="e">
+        <v>87.125</v>
+      </c>
+      <c r="F20" s="18">
         <f>E20/B20*D$12*G$14*D$14*F$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="19" t="e">
+        <v>18.314662667371561</v>
+      </c>
+      <c r="G20" s="19">
         <f>F20/B$14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18.48901407005215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="18" t="e">
+      <c r="B21" s="26">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="C21" s="8">
+        <v>80.5</v>
+      </c>
+      <c r="D21" s="27">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E21" s="18">
         <f>AVERAGE(C21:D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="18" t="e">
+        <v>80.55</v>
+      </c>
+      <c r="F21" s="18">
         <f>E21/B21*D$12*G$14*D$14*F$14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="19" t="e">
+        <v>18.350675258061838</v>
+      </c>
+      <c r="G21" s="19">
         <f>F21/B$14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+        <v>18.525369492374931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="e">
+      <c r="B22" s="31"/>
+      <c r="C22" s="34">
         <f>AVERAGE(F17:F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+        <v>18.340529269484964</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="13">
+        <v>23</v>
+      </c>
       <c r="C25" s="11" t="s">
         <v>42</v>
       </c>
@@ -1560,12 +1625,12 @@
       <c r="E25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="31">
         <v>75</v>
       </c>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
@@ -1588,11 +1653,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13">
+        <f>I5</f>
+        <v>0.99057000000000006</v>
+      </c>
       <c r="C27" s="9">
         <f>D25/B26</f>
         <v>1E-3</v>
@@ -1605,13 +1673,14 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="F27" s="9">
-        <v>4.5255000000000001</v>
+        <f>4.5284+(4.5235-4.5284)*(E27-0.01)/(0.015-0.01)</f>
+        <v>4.5251333333333337</v>
       </c>
       <c r="G27" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>12</v>
       </c>
@@ -1621,14 +1690,18 @@
       <c r="C28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>4.532</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="34">
+        <v>72.53</v>
+      </c>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>11</v>
       </c>
@@ -1644,76 +1717,90 @@
       <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="e">
+      <c r="B30" s="17">
+        <v>4.915</v>
+      </c>
+      <c r="C30" s="18">
+        <v>78.23</v>
+      </c>
+      <c r="D30" s="18">
+        <v>78.72</v>
+      </c>
+      <c r="E30" s="18">
         <f>AVERAGE(C30:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="25" t="e">
+        <v>78.474999999999994</v>
+      </c>
+      <c r="F30" s="37">
         <f>E30*G$27*D$27*F$27/B30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72.250221430993562</v>
+      </c>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="e">
+      <c r="B31" s="20">
+        <v>4.8419999999999996</v>
+      </c>
+      <c r="C31" s="21">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="D31" s="21">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E31" s="21">
         <f>AVERAGE(C31:D31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="27" t="e">
+        <v>76.11</v>
+      </c>
+      <c r="F31" s="39">
         <f>E31*G$27*D$27*F$27/B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+        <v>71.129264353572921</v>
+      </c>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="e">
+      <c r="B32" s="31"/>
+      <c r="C32" s="34">
         <f>AVERAGE(F30:G31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+        <v>71.689742892283249</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="13">
+        <v>23</v>
+      </c>
       <c r="C35" s="11" t="s">
         <v>45</v>
       </c>
@@ -1723,12 +1810,12 @@
       <c r="E35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="31">
         <v>60</v>
       </c>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>38</v>
       </c>
@@ -1751,11 +1838,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13">
+        <f>I5</f>
+        <v>0.99057000000000006</v>
+      </c>
       <c r="C37" s="9">
         <f>D35/B36</f>
         <v>1.85E-4</v>
@@ -1768,13 +1858,14 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F37" s="9">
-        <v>4.5255000000000001</v>
+        <f>4.5167+(4.5235-4.5167)*(E37-0.02)/(0.015-0.02)</f>
+        <v>4.5212333333333339</v>
       </c>
       <c r="G37" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>12</v>
       </c>
@@ -1784,14 +1875,18 @@
       <c r="C38" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12">
+        <v>4.532</v>
+      </c>
       <c r="E38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="34">
+        <v>7.37</v>
+      </c>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>11</v>
       </c>
@@ -1807,76 +1902,90 @@
       <c r="E39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="e">
+      <c r="B40" s="17">
+        <v>4.8529999999999998</v>
+      </c>
+      <c r="C40" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="D40" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="E40" s="18">
         <f>AVERAGE(C40:D40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="25" t="e">
+        <v>7.9</v>
+      </c>
+      <c r="F40" s="37">
         <f>E40*G$37*D$37*F$37/B40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.3599306271035116</v>
+      </c>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21" t="e">
+      <c r="B41" s="20">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="C41" s="21">
+        <v>8.25</v>
+      </c>
+      <c r="D41" s="21">
+        <v>8.25</v>
+      </c>
+      <c r="E41" s="21">
         <f>AVERAGE(C41:D41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="27" t="e">
+        <v>8.25</v>
+      </c>
+      <c r="F41" s="39">
         <f>E41*G$37*D$37*F$37/B41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+        <v>7.4067067116759349</v>
+      </c>
+      <c r="G41" s="40"/>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31" t="e">
+      <c r="B42" s="31"/>
+      <c r="C42" s="34">
         <f>AVERAGE(F40:G41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+        <v>7.3833186693897233</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="13">
+        <v>23</v>
+      </c>
       <c r="C45" s="11" t="s">
         <v>45</v>
       </c>
@@ -1886,12 +1995,12 @@
       <c r="E45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="31">
         <v>60</v>
       </c>
-      <c r="G45" s="35"/>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
         <v>38</v>
       </c>
@@ -1914,11 +2023,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="13">
+        <f>I5</f>
+        <v>0.99057000000000006</v>
+      </c>
       <c r="C47" s="9">
         <f>D45/B46</f>
         <v>1.1999999999999999E-3</v>
@@ -1931,13 +2043,14 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F47" s="9">
-        <v>4.5255000000000001</v>
+        <f>4.5167+(4.5235-4.5167)*(E47-0.02)/(0.015-0.02)</f>
+        <v>4.5212333333333339</v>
       </c>
       <c r="G47" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
@@ -1947,14 +2060,18 @@
       <c r="C48" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12">
+        <v>4.532</v>
+      </c>
       <c r="E48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
         <v>11</v>
       </c>
@@ -1970,87 +2087,79 @@
       <c r="E49" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18" t="e">
+      <c r="B50" s="17">
+        <v>2.907</v>
+      </c>
+      <c r="C50" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="D50" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="E50" s="18">
         <f>AVERAGE(C50:D50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="25" t="e">
+        <v>0.91</v>
+      </c>
+      <c r="F50" s="37">
         <f>E50*G$47*D$47*F$47/B50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.4153155601421856</v>
+      </c>
+      <c r="G50" s="38"/>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21" t="e">
+      <c r="B51" s="20">
+        <v>3.339</v>
+      </c>
+      <c r="C51" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="E51" s="21">
         <f>AVERAGE(C51:D51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="27" t="e">
+        <v>1.04</v>
+      </c>
+      <c r="F51" s="39">
         <f>E51*G$47*D$47*F$47/B51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+        <v>1.4082308076270342</v>
+      </c>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31" t="e">
+      <c r="B52" s="31"/>
+      <c r="C52" s="34">
         <f>AVERAGE(F50:G51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="42">
+        <v>1.4117731838846099</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E64" s="28">
         <f>12.555-5.555</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:G52"/>
@@ -2065,6 +2174,26 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
